--- a/data/trans_dic/P7B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P7B_R-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,63</t>
+          <t>1,03; 4,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,64</t>
+          <t>2,92; 6,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,91</t>
+          <t>2,4; 4,93</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 8,34</t>
+          <t>3,37; 8,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,38</t>
+          <t>4,8; 8,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,71</t>
+          <t>4,46; 7,44</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 9,59</t>
+          <t>4,32; 9,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 12,5</t>
+          <t>7,3; 12,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,11</t>
+          <t>6,69; 10,2</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,48; 16,64</t>
+          <t>7,79; 15,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 26,78</t>
+          <t>10,66; 25,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,61; 19,49</t>
+          <t>10,11; 18,77</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,07</t>
+          <t>1,37; 5,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 8,35</t>
+          <t>3,98; 8,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,12</t>
+          <t>3,31; 6,32</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,67; 12,74</t>
+          <t>6,94; 12,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,49</t>
+          <t>7,26; 12,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,7; 11,51</t>
+          <t>7,86; 11,67</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,01</t>
+          <t>6,25; 11,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,41; 16,52</t>
+          <t>8,07; 16,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,39; 12,99</t>
+          <t>8,39; 12,96</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,78</t>
+          <t>3,41; 6,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,86; 11,52</t>
+          <t>7,84; 11,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,13; 8,48</t>
+          <t>6,03; 8,59</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,49; 7,47</t>
+          <t>5,54; 7,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,77; 11,4</t>
+          <t>8,7; 11,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,49; 8,99</t>
+          <t>7,51; 9,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P7B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P7B_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,74</t>
+          <t>0,93; 4,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,45</t>
+          <t>2,95; 6,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,93</t>
+          <t>2,43; 4,91</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 8,48</t>
+          <t>3,46; 8,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 8,5</t>
+          <t>4,72; 8,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,44</t>
+          <t>4,57; 7,71</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 9,2</t>
+          <t>4,38; 9,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,4</t>
+          <t>7,26; 12,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 10,2</t>
+          <t>6,59; 10,11</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 15,56</t>
+          <t>7,48; 16,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,66; 25,58</t>
+          <t>10,85; 26,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 18,77</t>
+          <t>10,61; 19,49</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,07</t>
+          <t>1,42; 5,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,43</t>
+          <t>4,04; 8,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,32</t>
+          <t>3,19; 6,12</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,94; 12,68</t>
+          <t>6,67; 12,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,26; 12,63</t>
+          <t>7,1; 12,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,86; 11,67</t>
+          <t>7,7; 11,51</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,25; 11,18</t>
+          <t>6,07; 11,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,07; 16,35</t>
+          <t>8,41; 16,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,39; 12,96</t>
+          <t>8,39; 12,99</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,7</t>
+          <t>3,47; 6,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,84; 11,39</t>
+          <t>7,86; 11,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,03; 8,59</t>
+          <t>6,13; 8,48</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,54; 7,33</t>
+          <t>5,49; 7,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,7; 11,16</t>
+          <t>8,77; 11,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,51; 9,0</t>
+          <t>7,49; 8,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P7B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P7B_R-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,63</t>
+          <t>0,87; 4,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,64</t>
+          <t>2,86; 6,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,91</t>
+          <t>2,31; 4,78</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>5,71%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 8,34</t>
+          <t>3,39; 8,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,38</t>
+          <t>4,66; 8,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,71</t>
+          <t>4,46; 7,63</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,08%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 9,59</t>
+          <t>4,27; 9,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 12,5</t>
+          <t>7,13; 12,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,11</t>
+          <t>6,46; 9,94</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>18,91%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,48; 16,64</t>
+          <t>7,47; 16,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 26,78</t>
+          <t>9,96; 52,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,61; 19,49</t>
+          <t>10,55; 41,07</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,3%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,07</t>
+          <t>1,41; 4,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 8,35</t>
+          <t>3,04; 7,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,12</t>
+          <t>2,79; 5,76</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,35%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,67; 12,74</t>
+          <t>6,56; 12,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,49</t>
+          <t>7,06; 12,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,7; 11,51</t>
+          <t>7,62; 11,38</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>10,14%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,01</t>
+          <t>6,02; 11,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,41; 16,52</t>
+          <t>5,32; 16,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,39; 12,99</t>
+          <t>6,41; 12,49</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,78</t>
+          <t>1,5; 5,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,86; 11,52</t>
+          <t>7,93; 11,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,13; 8,48</t>
+          <t>3,89; 7,93</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,41%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,49; 7,47</t>
+          <t>4,74; 7,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,77; 11,4</t>
+          <t>8,46; 17,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,49; 8,99</t>
+          <t>7,23; 12,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P7B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P7B_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,49</t>
+          <t>1,03; 4,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,43</t>
+          <t>2,82; 6,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,78</t>
+          <t>2,15; 4,77</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 8,39</t>
+          <t>3,15; 8,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,25</t>
+          <t>4,59; 8,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,63</t>
+          <t>4,3; 7,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,39</t>
+          <t>4,63; 9,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 12,4</t>
+          <t>7,34; 12,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 9,94</t>
+          <t>6,57; 9,95</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,47; 16,59</t>
+          <t>7,37; 15,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,96; 52,95</t>
+          <t>9,97; 53,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,55; 41,07</t>
+          <t>10,31; 42,68</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,98</t>
+          <t>1,3; 4,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,98</t>
+          <t>2,96; 7,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,76</t>
+          <t>2,69; 5,79</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,56; 12,47</t>
+          <t>6,74; 12,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,06; 12,46</t>
+          <t>7,24; 12,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,62; 11,38</t>
+          <t>7,73; 11,31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 11,07</t>
+          <t>6,15; 10,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,32; 16,14</t>
+          <t>5,86; 15,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 12,49</t>
+          <t>6,29; 12,41</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,78</t>
+          <t>1,57; 5,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,93; 11,55</t>
+          <t>7,87; 11,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,89; 7,93</t>
+          <t>4,01; 7,92</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,74; 7,06</t>
+          <t>4,58; 6,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,46; 17,67</t>
+          <t>8,47; 16,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,23; 12,0</t>
+          <t>7,14; 12,26</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud mental autopercibida regular o mala</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7301</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12571</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19872</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3200; 14441</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8175; 17812</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12944; 28655</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>26716</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>32277</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>58993</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16332; 41600</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23641; 42118</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>44463; 76491</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20477</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>33271</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>53748</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14631; 29575</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25621; 42959</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>43679; 66158</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>34424</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>114663</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>149087</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>23030; 48485</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>47431; 255151</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>81303; 336457</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4804</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13992</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>18796</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2317; 8816</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7646; 19964</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11751; 25321</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>24552</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>24700</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>49252</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>18170; 33539</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>18614; 32991</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>40732; 59585</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>50963</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>98418</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>149381</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>38374; 66721</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>49726; 134972</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>92680; 182921</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>35745</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>68280</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>104025</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>14562; 52356</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>56462; 81315</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>65943; 130378</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>204983</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>398172</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>603155</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>158608; 240805</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>314203; 625311</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>511842; 879349</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>